--- a/testing_results/results_tai50x20.xlsx
+++ b/testing_results/results_tai50x20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1441371774260493</v>
+        <v>0.1398381983320818</v>
       </c>
       <c r="B2" t="n">
-        <v>0.144627493869298</v>
+        <v>0.1334798958214928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14211740490862</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1400054785293465</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1412130867738451</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1488144570366879</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1408750821851641</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1551098112138208</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1383764068496708</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1512670365419163</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1534302559414018</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1582517981248154</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1334798958214928</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.1100220572364815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1244353131163055</v>
+        <v>0.12166724013207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1253431255556167</v>
+        <v>0.1160838308532421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1227167761719583</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1198832594074775</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.119673826818317</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1327901270983674</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1214419597613895</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1374136985578134</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1175342026413716</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1375478512448915</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1355418926168507</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1459623467530476</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1160838308532421</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.09979943646856576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1069113021983266</v>
+        <v>0.1028722899586553</v>
       </c>
       <c r="B4" t="n">
-        <v>0.107498685128482</v>
+        <v>0.09420167625365358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1036603346717615</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09891628114720655</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.09864470157722985</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.110160924329474</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1008439560968956</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1216456779475917</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.09786670501496317</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1245238460768449</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1186918557353466</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1254759972888596</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.09420167625365358</v>
-      </c>
-      <c r="N4" t="n">
         <v>0.08620059030379669</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.07713839904684858</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06789188753152584</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09523355821808541</v>
       </c>
     </row>
   </sheetData>
